--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ055Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ055Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE7A4A-96FE-45F3-A0E6-0E5B816D82E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C5AB03-4060-4E49-A85C-9D4440CEC528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>指該案承審股別，中文全形字
 可輸入中文
 ("股"字不用填寫)
@@ -451,6 +447,12 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1042,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1062,7 +1064,7 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>48</v>
@@ -1090,10 +1092,10 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1146,7 +1148,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="15"/>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -1194,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>18</v>
@@ -1213,10 +1215,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>18</v>
@@ -1227,7 +1229,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="48.6">
       <c r="A13" s="19">
         <v>3</v>
       </c>
@@ -1245,7 +1247,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="13" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1287,7 +1289,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="97.2">
@@ -1308,7 +1310,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
@@ -1329,7 +1331,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4">
@@ -1350,7 +1352,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32.4">
@@ -1371,7 +1373,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4">
@@ -1394,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -1415,7 +1417,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48.6">
@@ -1436,7 +1438,7 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4">
@@ -1457,7 +1459,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1478,7 +1480,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1520,7 +1522,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="81">
@@ -1541,7 +1543,7 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1562,7 +1564,7 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2064,24 +2066,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
